--- a/public/template/Template Buku Besar.xlsx
+++ b/public/template/Template Buku Besar.xlsx
@@ -18,6 +18,9 @@
     <t xml:space="preserve">BUKU BESAR PEMBAYARAN DAN PIUTANG MAHASISWA</t>
   </si>
   <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -31,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">TARIF UKT</t>
-  </si>
-  <si>
-    <t>SEMESTER</t>
   </si>
   <si>
     <t>1</t>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <color theme="1"/>
@@ -140,22 +140,17 @@
       <color indexed="2"/>
       <sz val="11.000000"/>
     </font>
+    <font/>
     <font>
       <name val="Calibri"/>
       <b/>
       <color indexed="2"/>
       <sz val="11.000000"/>
     </font>
-    <font/>
     <font>
       <name val="Arial"/>
       <b/>
       <color theme="1"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -177,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -187,27 +182,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,62 +228,51 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -302,68 +304,72 @@
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="1" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="6" fillId="2" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="8" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="8" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="7" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,159 +959,159 @@
       <c r="AI2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="20">
         <v>7</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="20">
         <v>8</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="20">
         <v>9</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="21">
         <v>10</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="22">
         <v>11</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="22">
         <v>12</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="22">
         <v>13</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="22">
         <v>14</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="23">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>361755401002</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="27">
         <v>3</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="28">
         <v>2400000</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <v>2400000</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="29">
         <v>2400000</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="29">
         <v>2400000</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="29">
         <v>2400000</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="29">
         <v>2400000</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1124,51 +1130,51 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="25">
         <v>361755401004</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <v>2400000</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="29">
         <v>2400000</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="29">
         <v>2400000</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="29">
         <v>2400000</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="29">
         <v>2400000</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="29">
         <v>2400000</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="29">
         <v>2400000</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="29">
         <v>1200000</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="30">
         <v>500000</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1187,43 +1193,43 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="23">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="25">
         <v>361755401008</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="27">
         <v>3</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="28">
         <v>2400000</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <v>2400000</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="29">
         <v>2400000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="29">
         <v>2400000</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="29">
         <v>2400000</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1242,47 +1248,47 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="23">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>361755401009</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="28">
         <v>2400000</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <v>2400000</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="29">
         <v>2400000</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="29">
         <v>2400000</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="29">
         <v>2400000</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="29">
         <v>2400000</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="29">
         <v>2400000</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1301,51 +1307,51 @@
       <c r="AI8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="23">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>361755401011</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="27">
         <v>3</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="28">
         <v>2400000</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>2400000</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>2400000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="29">
         <v>2400000</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="29">
         <v>2400000</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="29">
         <v>2400000</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="31">
         <v>2400000</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="29">
         <v>1200000</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="32">
         <v>1200000</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1364,47 +1370,47 @@
       <c r="AI9" s="2"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>361755401012</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="27">
         <v>4</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="28">
         <v>3000000</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="29">
         <v>3000000</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="29">
         <v>3000000</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="29">
         <v>3000000</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="31">
         <v>3000000</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="31">
         <v>3000000</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="31">
         <v>3000000</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1423,51 +1429,51 @@
       <c r="AI10" s="2"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="23">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>361755401017</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="27">
         <v>3</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <v>2400000</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>2400000</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>2400000</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="29">
         <v>2400000</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="29">
         <v>2400000</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="33">
         <v>2400000</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="29">
         <v>2400000</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="29">
         <v>1200000</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="32">
         <v>1200000</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1486,51 +1492,51 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="23">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="25">
         <v>361755401018</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="27">
         <v>3</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="28">
         <v>2400000</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="29">
         <v>2400000</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="29">
         <v>2400000</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="29">
         <v>2400000</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="29">
         <v>2400000</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="29">
         <v>2400000</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="31">
         <v>2400000</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="29">
         <v>1200000</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="30">
         <v>1200000</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1549,51 +1555,51 @@
       <c r="AI12" s="2"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="23">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="25">
         <v>361755401020</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="27">
         <v>4</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="28">
         <v>3000000</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <v>3000000</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="29">
         <v>3000000</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="29">
         <v>3000000</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="29">
         <v>3000000</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="29">
         <v>3000000</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="29">
         <v>3000000</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="29">
         <v>1500000</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="29">
         <v>1500000</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1612,47 +1618,47 @@
       <c r="AI13" s="2"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="25">
         <v>361755401022</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="27">
         <v>4</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="28">
         <v>3000000</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <v>3000000</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="29">
         <v>3000000</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="29">
         <v>3000000</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="29">
         <v>3000000</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="29">
         <v>3000000</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="29">
         <v>3000000</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1671,51 +1677,51 @@
       <c r="AI14" s="2"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="23">
+      <c r="A15" s="24">
         <v>11</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="25">
         <v>361755401026</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="27">
         <v>2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="28">
         <v>1000000</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>2400000</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="29">
         <v>2400000</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="29">
         <v>2400000</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="29">
         <v>1000000</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="29">
         <v>1000000</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="29">
         <v>1000000</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="29">
         <v>500000</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="29">
         <v>500000</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -1734,45 +1740,45 @@
       <c r="AI15" s="2"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>12</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="25">
         <v>361755401027</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="27">
         <v>3</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="28">
         <v>2400000</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <v>2400000</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="29">
         <v>2400000</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="29">
         <v>2400000</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="29">
         <v>2400000</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="29">
         <v>2400000</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1791,49 +1797,49 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="23">
+      <c r="A17" s="24">
         <v>13</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>361755401029</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="27">
         <v>3</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="28">
         <v>2400000</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <v>2400000</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="29">
         <v>2400000</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="29">
         <v>2400000</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="29">
         <v>2400000</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="29">
         <v>2400000</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="29">
         <v>2400000</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="30">
         <v>1200000</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1852,51 +1858,51 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="23">
+      <c r="A18" s="24">
         <v>14</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>361755401032</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="27">
         <v>4</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="28">
         <v>3000000</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="29">
         <v>3000000</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="29">
         <v>3000000</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="29">
         <v>3000000</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="29">
         <v>3000000</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="29">
         <v>3000000</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="31">
         <v>3000000</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="33">
         <v>1500000</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="29">
         <v>1500000</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1915,49 +1921,49 @@
       <c r="AI18" s="2"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="23">
+      <c r="A19" s="24">
         <v>15</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>361755401033</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="27">
         <v>3</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="28">
         <v>2400000</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="29">
         <v>2400000</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="29">
         <v>2400000</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="29">
         <v>2400000</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="29">
         <v>2400000</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="29">
         <v>2400000</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="29">
         <v>2400000</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="29">
         <v>1200000</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1976,49 +1982,49 @@
       <c r="AI19" s="2"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="23">
+      <c r="A20" s="24">
         <v>16</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="25">
         <v>361755401035</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="27">
         <v>4</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="28">
         <v>3000000</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="29">
         <v>3000000</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="29">
         <v>3000000</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="29">
         <v>3000000</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="29">
         <v>3000000</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="29">
         <v>3000000</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="29">
         <v>3000000</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="33">
         <v>1500000</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2037,51 +2043,51 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="23">
+      <c r="A21" s="24">
         <v>17</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="25">
         <v>361755401037</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="27">
         <v>4</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="28">
         <v>3000000</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="29">
         <v>3000000</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="29">
         <v>3000000</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="29">
         <v>3000000</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="29">
         <v>3000000</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="29">
         <v>3000000</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="30">
         <v>3000000</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="29">
         <v>1500000</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="32">
         <v>1500000</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -2100,49 +2106,49 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="23">
+      <c r="A22" s="24">
         <v>18</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="25">
         <v>361755401038</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="27">
         <v>3</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="28">
         <v>2400000</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="29">
         <v>2400000</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="29">
         <v>2400000</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="29">
         <v>2400000</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="31">
         <v>2400000</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="29">
         <v>2400000</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="30">
         <v>2400000</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="29">
         <v>1200000</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -2161,49 +2167,49 @@
       <c r="AI22" s="2"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="23">
+      <c r="A23" s="24">
         <v>19</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="25">
         <v>361755401041</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="27">
         <v>3</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="28">
         <v>2400000</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="29">
         <v>2400000</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="29">
         <v>2400000</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="29">
         <v>2400000</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="29">
         <v>2400000</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="33">
         <v>2400000</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="29">
         <v>2400000</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="29">
         <v>1200000</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -2222,51 +2228,51 @@
       <c r="AI23" s="2"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="23">
+      <c r="A24" s="24">
         <v>20</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="25">
         <v>361755401042</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="27">
         <v>3</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="28">
         <v>2400000</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>2400000</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>2400000</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="29">
         <v>2400000</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="29">
         <v>2400000</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="29">
         <v>2400000</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="29">
         <v>2400000</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="29">
         <v>1200000</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="29">
         <v>1200000</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -31515,13 +31521,9 @@
       <c r="AI814" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:S3"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
